--- a/Document/v1.1/DevSecOps-VerificationStandard-v1.1-ja.xlsx
+++ b/Document/v1.1/DevSecOps-VerificationStandard-v1.1-ja.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\docs\owasp-devsecops-verification-standard\owasp-devsecops-verification-standard-ja\Document\v1.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C57A6E88-5FDE-4120-A455-834B3DFDDA31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DA21F5-509E-438E-A149-A483F2105AA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="15540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Config" sheetId="4" r:id="rId1"/>
@@ -3315,29 +3315,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="メイリオ"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>管轄環境の堅牢化テンプレートを実装している。</t>
-    </r>
-    <rPh sb="0" eb="4">
-      <t>ｶﾝｶﾂｶﾝｷｮｳ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ｹﾝﾛｳｶ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ｼﾞｯｿｳ</t>
-    </rPh>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>CODE-001-</t>
     </r>
     <r>
@@ -10103,6 +10080,22 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>ｶﾝｼ</t>
+    </rPh>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>開発環境の堅牢化テンプレートを実装している。</t>
+    <rPh sb="0" eb="2">
+      <t>ｶｲﾊﾂ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ｶﾝｷｮｳ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>ｹﾝﾛｳｶ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ｼﾞｯｿｳ</t>
     </rPh>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -10174,6 +10167,7 @@
     <font>
       <sz val="8"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -10659,7 +10653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="91">
+  <cellXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10781,75 +10775,6 @@
     <xf numFmtId="176" fontId="3" fillId="23" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -10862,30 +10787,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -10929,6 +10830,100 @@
     <xf numFmtId="0" fontId="18" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal 2" xfId="1" xr:uid="{0887A3D7-0AD8-44E1-9CF6-2B9750EBC658}"/>
@@ -13844,1671 +13839,1671 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.6640625" style="64" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="141.109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="64"/>
+    <col min="1" max="1" width="18.6640625" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="141.109375" style="41" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="41"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="64" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" s="41" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="41" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="64" t="s">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="64">
+      <c r="B2" s="41">
         <v>0</v>
       </c>
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="64" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="64">
+      <c r="B3" s="41">
         <v>1</v>
       </c>
-      <c r="C3" s="64" t="s">
+      <c r="C3" s="41" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="64" t="s">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="64">
+      <c r="B4" s="41">
         <v>2</v>
       </c>
-      <c r="C4" s="64" t="s">
+      <c r="C4" s="41" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="64" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A5" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="B5" s="64">
+      <c r="B5" s="41">
         <v>3</v>
       </c>
-      <c r="C5" s="64" t="s">
+      <c r="C5" s="41" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="64" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A7" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="41" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="64" t="s">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A8" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="41" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="64" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A9" s="41" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="64" t="s">
+      <c r="B9" s="41" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="64" t="s">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A10" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="64" t="s">
+      <c r="B10" s="41" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A11" s="41" t="s">
         <v>58</v>
       </c>
-      <c r="B11" s="64" t="s">
+      <c r="B11" s="41" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="64" t="s">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A12" s="41" t="s">
         <v>60</v>
       </c>
-      <c r="B12" s="64" t="s">
+      <c r="B12" s="41" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="64" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A13" s="41" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="64" t="s">
+      <c r="B13" s="41" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="64" t="s">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A14" s="41" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="64" t="s">
+      <c r="B14" s="41" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="64" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A15" s="41" t="s">
         <v>66</v>
       </c>
-      <c r="B15" s="64" t="s">
+      <c r="B15" s="41" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="64" t="s">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A16" s="41" t="s">
         <v>68</v>
       </c>
-      <c r="B16" s="64" t="s">
+      <c r="B16" s="41" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="64" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A17" s="41" t="s">
         <v>70</v>
       </c>
-      <c r="B17" s="64" t="s">
+      <c r="B17" s="41" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="64" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A18" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="41" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="64" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A19" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="B19" s="64" t="s">
+      <c r="B19" s="41" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="64" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A20" s="41" t="s">
         <v>76</v>
       </c>
-      <c r="B20" s="64" t="s">
+      <c r="B20" s="41" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="64" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A21" s="41" t="s">
         <v>78</v>
       </c>
-      <c r="B21" s="64" t="s">
+      <c r="B21" s="41" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="64" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A22" s="41" t="s">
         <v>80</v>
       </c>
-      <c r="B22" s="64" t="s">
+      <c r="B22" s="41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="64" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A23" s="41" t="s">
         <v>82</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="41" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="64" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A24" s="41" t="s">
         <v>84</v>
       </c>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="41" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="64" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A25" s="41" t="s">
         <v>86</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="41" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="64" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A26" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="41" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="64" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A27" s="41" t="s">
         <v>90</v>
       </c>
-      <c r="B27" s="64" t="s">
+      <c r="B27" s="41" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="64" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A28" s="41" t="s">
         <v>92</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="41" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="64" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A29" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="41" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="64" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A30" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="41" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="64" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A31" s="41" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="64" t="s">
+      <c r="B31" s="41" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="64" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A32" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="41" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="64" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A33" s="41" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="64" t="s">
+      <c r="B33" s="41" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="64" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A34" s="41" t="s">
         <v>104</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="41" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="64" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A35" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="B35" s="64" t="s">
+      <c r="B35" s="41" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="64" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A36" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="64" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A37" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="B37" s="64" t="s">
+      <c r="B37" s="41" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="64" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A38" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="41" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="64" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A39" s="41" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="64" t="s">
+      <c r="B39" s="41" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="64" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A40" s="41" t="s">
         <v>116</v>
       </c>
-      <c r="B40" s="64" t="s">
+      <c r="B40" s="41" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="64" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A41" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="B41" s="64" t="s">
+      <c r="B41" s="41" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="64" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A42" s="41" t="s">
         <v>120</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="41" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="64" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A43" s="41" t="s">
         <v>122</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="41" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="64" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A44" s="41" t="s">
         <v>124</v>
       </c>
-      <c r="B44" s="64" t="s">
+      <c r="B44" s="41" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="64" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A45" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="B45" s="64" t="s">
+      <c r="B45" s="41" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="64" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A46" s="41" t="s">
         <v>128</v>
       </c>
-      <c r="B46" s="64" t="s">
+      <c r="B46" s="41" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="64" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A47" s="41" t="s">
         <v>130</v>
       </c>
-      <c r="B47" s="64" t="s">
+      <c r="B47" s="41" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="64" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A48" s="41" t="s">
         <v>132</v>
       </c>
-      <c r="B48" s="64" t="s">
+      <c r="B48" s="41" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="64" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A49" s="41" t="s">
         <v>134</v>
       </c>
-      <c r="B49" s="64" t="s">
+      <c r="B49" s="41" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="64" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A50" s="41" t="s">
         <v>136</v>
       </c>
-      <c r="B50" s="64" t="s">
+      <c r="B50" s="41" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="64" t="s">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A51" s="41" t="s">
         <v>138</v>
       </c>
-      <c r="B51" s="64" t="s">
+      <c r="B51" s="41" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="64" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A52" s="41" t="s">
         <v>140</v>
       </c>
-      <c r="B52" s="64" t="s">
+      <c r="B52" s="41" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="64" t="s">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A53" s="41" t="s">
         <v>142</v>
       </c>
-      <c r="B53" s="64" t="s">
+      <c r="B53" s="41" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="64" t="s">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A54" s="41" t="s">
         <v>144</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="41" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="64" t="s">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A55" s="41" t="s">
         <v>146</v>
       </c>
-      <c r="B55" s="64" t="s">
+      <c r="B55" s="41" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="64" t="s">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A56" s="41" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="64" t="s">
+      <c r="B56" s="41" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="64" t="s">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A57" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="64" t="s">
+      <c r="B57" s="41" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="64" t="s">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A58" s="41" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="64" t="s">
+      <c r="B58" s="41" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="64" t="s">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A59" s="41" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="64" t="s">
+      <c r="B59" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="64" t="s">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A60" s="41" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="64" t="s">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A61" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="64" t="s">
+      <c r="B61" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="64" t="s">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A62" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="64" t="s">
+      <c r="B62" s="41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="64" t="s">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A63" s="41" t="s">
         <v>162</v>
       </c>
-      <c r="B63" s="64" t="s">
+      <c r="B63" s="41" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="64" t="s">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A64" s="41" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="64" t="s">
+      <c r="B64" s="41" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="64" t="s">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A65" s="41" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="64" t="s">
+      <c r="B65" s="41" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="64" t="s">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A66" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="64" t="s">
+      <c r="B66" s="91" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A67" s="41" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="64" t="s">
+      <c r="B67" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="B67" s="64" t="s">
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A68" s="41" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="64" t="s">
+      <c r="B68" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="64" t="s">
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A69" s="41" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="64" t="s">
+      <c r="B69" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="64" t="s">
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A70" s="41" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="64" t="s">
+      <c r="B70" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="64" t="s">
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A71" s="41" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="64" t="s">
+      <c r="B71" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="64" t="s">
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A72" s="41" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="64" t="s">
+      <c r="B72" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="B72" s="64" t="s">
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A73" s="41" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="64" t="s">
+      <c r="B73" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="B73" s="64" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A74" s="41" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="64" t="s">
+      <c r="B74" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="B74" s="64" t="s">
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A75" s="41" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="64" t="s">
+      <c r="B75" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="B75" s="64" t="s">
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A76" s="41" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="64" t="s">
+      <c r="B76" s="41" t="s">
         <v>188</v>
       </c>
-      <c r="B76" s="64" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A77" s="41" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="64" t="s">
+      <c r="B77" s="41" t="s">
         <v>190</v>
       </c>
-      <c r="B77" s="64" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A78" s="41" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="64" t="s">
+      <c r="B78" s="41" t="s">
         <v>192</v>
       </c>
-      <c r="B78" s="64" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A79" s="41" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="64" t="s">
+      <c r="B79" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="B79" s="64" t="s">
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A80" s="41" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="64" t="s">
+      <c r="B80" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="B80" s="64" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A81" s="41" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="64" t="s">
+      <c r="B81" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="B81" s="64" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A82" s="41" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="64" t="s">
+      <c r="B82" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A83" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="B82" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="64" t="s">
+      <c r="B83" s="41" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="64" t="s">
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A84" s="41" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="64" t="s">
+      <c r="B84" s="41" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="64" t="s">
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A85" s="41" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="64" t="s">
+      <c r="B85" s="41" t="s">
         <v>205</v>
       </c>
-      <c r="B85" s="64" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A86" s="41" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="64" t="s">
+      <c r="B86" s="41" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="64" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A87" s="41" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="64" t="s">
+      <c r="B87" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A88" s="41" t="s">
         <v>209</v>
       </c>
-      <c r="B87" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="64" t="s">
+      <c r="B88" s="41" t="s">
         <v>210</v>
       </c>
-      <c r="B88" s="64" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A89" s="41" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="64" t="s">
+      <c r="B89" s="41" t="s">
         <v>212</v>
       </c>
-      <c r="B89" s="64" t="s">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A90" s="41" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="64" t="s">
+      <c r="B90" s="41" t="s">
         <v>214</v>
       </c>
-      <c r="B90" s="64" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A91" s="41" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="64" t="s">
+      <c r="B91" s="41" t="s">
         <v>216</v>
       </c>
-      <c r="B91" s="64" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A92" s="41" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="64" t="s">
+      <c r="B92" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A93" s="41" t="s">
         <v>218</v>
       </c>
-      <c r="B92" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="64" t="s">
+      <c r="B93" s="41" t="s">
         <v>219</v>
       </c>
-      <c r="B93" s="64" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A94" s="41" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="64" t="s">
+      <c r="B94" s="41" t="s">
         <v>221</v>
       </c>
-      <c r="B94" s="64" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A95" s="41" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="64" t="s">
+      <c r="B95" s="41" t="s">
         <v>223</v>
       </c>
-      <c r="B95" s="64" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A96" s="41" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="64" t="s">
+      <c r="B96" s="41" t="s">
         <v>225</v>
       </c>
-      <c r="B96" s="64" t="s">
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A97" s="41" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="64" t="s">
+      <c r="B97" s="41" t="s">
         <v>227</v>
       </c>
-      <c r="B97" s="64" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A98" s="41" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="64" t="s">
+      <c r="B98" s="41" t="s">
         <v>229</v>
       </c>
-      <c r="B98" s="64" t="s">
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A99" s="41" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="64" t="s">
+      <c r="B99" s="41" t="s">
         <v>231</v>
       </c>
-      <c r="B99" s="64" t="s">
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A100" s="41" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="64" t="s">
+      <c r="B100" s="41" t="s">
         <v>233</v>
       </c>
-      <c r="B100" s="64" t="s">
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A101" s="41" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="64" t="s">
+      <c r="B101" s="41" t="s">
         <v>235</v>
       </c>
-      <c r="B101" s="64" t="s">
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A102" s="41" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="64" t="s">
+      <c r="B102" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A103" s="41" t="s">
         <v>237</v>
       </c>
-      <c r="B102" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="64" t="s">
+      <c r="B103" s="41" t="s">
         <v>238</v>
       </c>
-      <c r="B103" s="64" t="s">
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A104" s="41" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="64" t="s">
+      <c r="B104" s="41" t="s">
         <v>240</v>
       </c>
-      <c r="B104" s="64" t="s">
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A105" s="41" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="64" t="s">
+      <c r="B105" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="B105" s="64" t="s">
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A106" s="41" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="64" t="s">
+      <c r="B106" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="B106" s="64" t="s">
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A107" s="41" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="64" t="s">
+      <c r="B107" s="41" t="s">
         <v>246</v>
       </c>
-      <c r="B107" s="64" t="s">
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A108" s="41" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="64" t="s">
+      <c r="B108" s="41" t="s">
         <v>248</v>
       </c>
-      <c r="B108" s="64" t="s">
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A109" s="41" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="64" t="s">
+      <c r="B109" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="B109" s="64" t="s">
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A110" s="41" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="64" t="s">
+      <c r="B110" s="41" t="s">
         <v>252</v>
       </c>
-      <c r="B110" s="64" t="s">
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A111" s="41" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="64" t="s">
+      <c r="B111" s="41" t="s">
         <v>254</v>
       </c>
-      <c r="B111" s="64" t="s">
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A112" s="41" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="64" t="s">
+      <c r="B112" s="41" t="s">
         <v>256</v>
       </c>
-      <c r="B112" s="64" t="s">
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" s="41" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="64" t="s">
+      <c r="B113" s="41" t="s">
         <v>258</v>
       </c>
-      <c r="B113" s="64" t="s">
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" s="41" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="64" t="s">
+      <c r="B114" s="41" t="s">
         <v>260</v>
       </c>
-      <c r="B114" s="64" t="s">
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" s="41" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="64" t="s">
+      <c r="B115" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="B115" s="64" t="s">
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" s="41" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="64" t="s">
+      <c r="B116" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="B116" s="64" t="s">
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" s="41" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="64" t="s">
+      <c r="B117" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="B117" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="64" t="s">
+      <c r="B118" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="B118" s="64" t="s">
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" s="41" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="64" t="s">
+      <c r="B119" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="B119" s="64" t="s">
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" s="41" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="64" t="s">
+      <c r="B120" s="41" t="s">
         <v>271</v>
       </c>
-      <c r="B120" s="64" t="s">
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" s="41" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="64" t="s">
+      <c r="B121" s="41" t="s">
         <v>273</v>
       </c>
-      <c r="B121" s="64" t="s">
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" s="41" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="64" t="s">
+      <c r="B122" s="41" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" s="41" t="s">
         <v>275</v>
       </c>
-      <c r="B122" s="64" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="64" t="s">
+      <c r="B123" s="41" t="s">
         <v>276</v>
       </c>
-      <c r="B123" s="64" t="s">
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" s="41" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="64" t="s">
+      <c r="B124" s="41" t="s">
         <v>278</v>
       </c>
-      <c r="B124" s="64" t="s">
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" s="41" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="64" t="s">
+      <c r="B125" s="41" t="s">
         <v>280</v>
       </c>
-      <c r="B125" s="64" t="s">
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" s="41" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="64" t="s">
+      <c r="B126" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B126" s="64" t="s">
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" s="41" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="64" t="s">
+      <c r="B127" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="B127" s="64" t="s">
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" s="41" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="64" t="s">
+      <c r="B128" s="41" t="s">
         <v>286</v>
       </c>
-      <c r="B128" s="64" t="s">
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" s="41" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="64" t="s">
+      <c r="B129" s="41" t="s">
         <v>288</v>
       </c>
-      <c r="B129" s="64" t="s">
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" s="41" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="64" t="s">
+      <c r="B130" s="41" t="s">
         <v>290</v>
       </c>
-      <c r="B130" s="64" t="s">
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" s="41" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="64" t="s">
+      <c r="B131" s="41" t="s">
         <v>292</v>
       </c>
-      <c r="B131" s="64" t="s">
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" s="41" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="64" t="s">
+      <c r="B132" s="41" t="s">
         <v>294</v>
       </c>
-      <c r="B132" s="64" t="s">
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" s="41" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="64" t="s">
+      <c r="B133" s="41" t="s">
         <v>296</v>
       </c>
-      <c r="B133" s="64" t="s">
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" s="41" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="64" t="s">
+      <c r="B134" s="41" t="s">
         <v>298</v>
       </c>
-      <c r="B134" s="64" t="s">
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" s="41" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="64" t="s">
+      <c r="B135" s="41" t="s">
         <v>300</v>
       </c>
-      <c r="B135" s="64" t="s">
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" s="41" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="64" t="s">
+      <c r="B136" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="B136" s="64" t="s">
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" s="41" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="64" t="s">
+      <c r="B137" s="41" t="s">
         <v>304</v>
       </c>
-      <c r="B137" s="64" t="s">
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" s="41" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="64" t="s">
+      <c r="B138" s="41" t="s">
         <v>306</v>
       </c>
-      <c r="B138" s="64" t="s">
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" s="41" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="64" t="s">
+      <c r="B139" s="41" t="s">
         <v>308</v>
       </c>
-      <c r="B139" s="64" t="s">
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" s="41" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="64" t="s">
+      <c r="B140" s="41" t="s">
         <v>310</v>
       </c>
-      <c r="B140" s="64" t="s">
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A141" s="41" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="64" t="s">
+      <c r="B141" s="41" t="s">
         <v>312</v>
       </c>
-      <c r="B141" s="64" t="s">
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" s="41" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="64" t="s">
+      <c r="B142" s="41" t="s">
         <v>314</v>
       </c>
-      <c r="B142" s="64" t="s">
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" s="41" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="64" t="s">
+      <c r="B143" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="B143" s="64" t="s">
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" s="41" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="64" t="s">
+      <c r="B144" s="41" t="s">
         <v>318</v>
       </c>
-      <c r="B144" s="64" t="s">
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" s="41" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="64" t="s">
+      <c r="B145" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="B145" s="64" t="s">
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" s="41" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="64" t="s">
+      <c r="B146" s="41" t="s">
         <v>322</v>
       </c>
-      <c r="B146" s="64" t="s">
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" s="41" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="64" t="s">
+      <c r="B147" s="41" t="s">
         <v>324</v>
       </c>
-      <c r="B147" s="64" t="s">
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" s="41" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="64" t="s">
+      <c r="B148" s="41" t="s">
         <v>326</v>
       </c>
-      <c r="B148" s="64" t="s">
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" s="41" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="64" t="s">
+      <c r="B149" s="41" t="s">
         <v>328</v>
       </c>
-      <c r="B149" s="64" t="s">
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" s="41" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="64" t="s">
+      <c r="B150" s="41" t="s">
         <v>330</v>
       </c>
-      <c r="B150" s="64" t="s">
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" s="41" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="64" t="s">
+      <c r="B151" s="41" t="s">
         <v>332</v>
       </c>
-      <c r="B151" s="64" t="s">
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" s="41" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="64" t="s">
+      <c r="B152" s="41" t="s">
         <v>334</v>
       </c>
-      <c r="B152" s="64" t="s">
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" s="41" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="64" t="s">
+      <c r="B153" s="41" t="s">
         <v>336</v>
       </c>
-      <c r="B153" s="64" t="s">
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" s="41" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="64" t="s">
+      <c r="B154" s="41" t="s">
         <v>338</v>
       </c>
-      <c r="B154" s="64" t="s">
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" s="41" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="64" t="s">
+      <c r="B155" s="41" t="s">
         <v>340</v>
       </c>
-      <c r="B155" s="64" t="s">
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" s="41" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="64" t="s">
+      <c r="B156" s="41" t="s">
         <v>342</v>
       </c>
-      <c r="B156" s="64" t="s">
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" s="41" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="64" t="s">
+      <c r="B157" s="41" t="s">
         <v>344</v>
       </c>
-      <c r="B157" s="64" t="s">
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" s="41" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="64" t="s">
+      <c r="B158" s="41" t="s">
         <v>346</v>
       </c>
-      <c r="B158" s="64" t="s">
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" s="41" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="64" t="s">
+      <c r="B159" s="41" t="s">
         <v>348</v>
       </c>
-      <c r="B159" s="64" t="s">
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" s="41" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="64" t="s">
+      <c r="B160" s="41" t="s">
         <v>350</v>
       </c>
-      <c r="B160" s="64" t="s">
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A161" s="41" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="64" t="s">
+      <c r="B161" s="41" t="s">
         <v>352</v>
       </c>
-      <c r="B161" s="64" t="s">
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A162" s="41" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="64" t="s">
+      <c r="B162" s="41" t="s">
         <v>354</v>
       </c>
-      <c r="B162" s="64" t="s">
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A163" s="41" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="64" t="s">
+      <c r="B163" s="41" t="s">
         <v>356</v>
       </c>
-      <c r="B163" s="64" t="s">
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A164" s="41" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="64" t="s">
+      <c r="B164" s="41" t="s">
         <v>358</v>
       </c>
-      <c r="B164" s="64" t="s">
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A165" s="41" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="64" t="s">
+      <c r="B165" s="41" t="s">
         <v>360</v>
       </c>
-      <c r="B165" s="64" t="s">
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A166" s="41" t="s">
         <v>361</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="64" t="s">
+      <c r="B166" s="41" t="s">
         <v>362</v>
       </c>
-      <c r="B166" s="64" t="s">
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A167" s="41" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="64" t="s">
+      <c r="B167" s="41" t="s">
         <v>364</v>
       </c>
-      <c r="B167" s="64" t="s">
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A168" s="41" t="s">
         <v>365</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="64" t="s">
+      <c r="B168" s="41" t="s">
         <v>366</v>
       </c>
-      <c r="B168" s="64" t="s">
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A169" s="41" t="s">
         <v>367</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="64" t="s">
+      <c r="B169" s="41" t="s">
         <v>368</v>
       </c>
-      <c r="B169" s="64" t="s">
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A170" s="41" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="64" t="s">
+      <c r="B170" s="41" t="s">
         <v>370</v>
       </c>
-      <c r="B170" s="64" t="s">
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A171" s="41" t="s">
         <v>371</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="64" t="s">
+      <c r="B171" s="41" t="s">
         <v>372</v>
       </c>
-      <c r="B171" s="64" t="s">
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A172" s="41" t="s">
         <v>373</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="64" t="s">
+      <c r="B172" s="41" t="s">
         <v>374</v>
       </c>
-      <c r="B172" s="64" t="s">
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A173" s="41" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="64" t="s">
+      <c r="B173" s="41" t="s">
         <v>376</v>
       </c>
-      <c r="B173" s="64" t="s">
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A174" s="41" t="s">
         <v>377</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="64" t="s">
+      <c r="B174" s="41" t="s">
         <v>378</v>
       </c>
-      <c r="B174" s="64" t="s">
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A175" s="41" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="64" t="s">
+      <c r="B175" s="41" t="s">
         <v>380</v>
       </c>
-      <c r="B175" s="64" t="s">
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A176" s="41" t="s">
         <v>381</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="64" t="s">
+      <c r="B176" s="41" t="s">
         <v>382</v>
       </c>
-      <c r="B176" s="64" t="s">
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A177" s="41" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="64" t="s">
+      <c r="B177" s="41" t="s">
         <v>384</v>
       </c>
-      <c r="B177" s="64" t="s">
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A178" s="41" t="s">
         <v>385</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="64" t="s">
+      <c r="B178" s="41" t="s">
         <v>386</v>
       </c>
-      <c r="B178" s="64" t="s">
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A179" s="41" t="s">
         <v>387</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="64" t="s">
+      <c r="B179" s="41" t="s">
         <v>388</v>
       </c>
-      <c r="B179" s="64" t="s">
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A180" s="41" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="64" t="s">
+      <c r="B180" s="41" t="s">
         <v>390</v>
       </c>
-      <c r="B180" s="64" t="s">
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A181" s="41" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="64" t="s">
+      <c r="B181" s="41" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A182" s="41" t="s">
         <v>392</v>
       </c>
-      <c r="B181" s="64" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="64" t="s">
+      <c r="B182" s="41" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A183" s="41" t="s">
         <v>393</v>
       </c>
-      <c r="B182" s="64" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="64" t="s">
+      <c r="B183" s="41" t="s">
         <v>394</v>
       </c>
-      <c r="B183" s="64" t="s">
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A184" s="41" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="64" t="s">
+      <c r="B184" s="41" t="s">
         <v>396</v>
       </c>
-      <c r="B184" s="64" t="s">
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A185" s="41" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="64" t="s">
+      <c r="B185" s="41" t="s">
         <v>398</v>
       </c>
-      <c r="B185" s="64" t="s">
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A186" s="41" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="64" t="s">
+      <c r="B186" s="41" t="s">
         <v>400</v>
       </c>
-      <c r="B186" s="64" t="s">
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A187" s="41" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="64" t="s">
+      <c r="B187" s="41" t="s">
         <v>402</v>
       </c>
-      <c r="B187" s="64" t="s">
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A188" s="41" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="64" t="s">
+      <c r="B188" s="41" t="s">
         <v>404</v>
       </c>
-      <c r="B188" s="64" t="s">
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A189" s="41" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="64" t="s">
+      <c r="B189" s="41" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A190" s="41" t="s">
         <v>406</v>
       </c>
-      <c r="B189" s="64" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="64" t="s">
+      <c r="B190" s="41" t="s">
         <v>407</v>
       </c>
-      <c r="B190" s="64" t="s">
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A191" s="41" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="64" t="s">
+      <c r="B191" s="41" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A192" s="41" t="s">
         <v>409</v>
       </c>
-      <c r="B191" s="64" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="64" t="s">
+      <c r="B192" s="41" t="s">
         <v>410</v>
       </c>
-      <c r="B192" s="64" t="s">
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A193" s="41" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="64" t="s">
+      <c r="B193" s="41" t="s">
         <v>412</v>
       </c>
-      <c r="B193" s="64" t="s">
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A194" s="41" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="64" t="s">
+      <c r="B194" s="41" t="s">
         <v>414</v>
       </c>
-      <c r="B194" s="64" t="s">
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A195" s="41" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="64" t="s">
+      <c r="B195" s="41" t="s">
         <v>416</v>
       </c>
-      <c r="B195" s="64" t="s">
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A196" s="41" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="64" t="s">
+      <c r="B196" s="41" t="s">
         <v>418</v>
       </c>
-      <c r="B196" s="64" t="s">
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A197" s="41" t="s">
         <v>419</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="64" t="s">
+      <c r="B197" s="41" t="s">
         <v>420</v>
       </c>
-      <c r="B197" s="64" t="s">
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A198" s="41" t="s">
         <v>421</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="64" t="s">
+      <c r="B198" s="41" t="s">
         <v>422</v>
       </c>
-      <c r="B198" s="64" t="s">
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A199" s="41" t="s">
         <v>423</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="64" t="s">
+      <c r="B199" s="41" t="s">
         <v>424</v>
       </c>
-      <c r="B199" s="64" t="s">
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A200" s="41" t="s">
         <v>425</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="64" t="s">
+      <c r="B200" s="41" t="s">
         <v>426</v>
       </c>
-      <c r="B200" s="64" t="s">
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A201" s="41" t="s">
         <v>427</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="64" t="s">
+      <c r="B201" s="41" t="s">
         <v>428</v>
       </c>
-      <c r="B201" s="64" t="s">
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A202" s="41" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="64" t="s">
+      <c r="B202" s="41" t="s">
         <v>430</v>
       </c>
-      <c r="B202" s="64" t="s">
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A203" s="41" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="64" t="s">
+      <c r="B203" s="41" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A204" s="41" t="s">
         <v>432</v>
       </c>
-      <c r="B203" s="64" t="s">
+      <c r="B204" s="41" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A205" s="41" t="s">
+        <v>433</v>
+      </c>
+      <c r="B205" s="41" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A206" s="41" t="s">
+        <v>434</v>
+      </c>
+      <c r="B206" s="41" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="64" t="s">
-        <v>433</v>
-      </c>
-      <c r="B204" s="64" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="B205" s="64" t="s">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A207" s="41" t="s">
+        <v>435</v>
+      </c>
+      <c r="B207" s="41" t="s">
         <v>438</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="64" t="s">
-        <v>435</v>
-      </c>
-      <c r="B206" s="64" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="64" t="s">
-        <v>436</v>
-      </c>
-      <c r="B207" s="64" t="s">
-        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -15536,39 +15531,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.399999999999999" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="42" t="s">
+        <v>441</v>
+      </c>
+      <c r="B1" s="43" t="s">
         <v>442</v>
       </c>
-      <c r="B1" s="66" t="s">
+      <c r="C1" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="C1" s="67" t="s">
+      <c r="D1" s="44" t="s">
         <v>444</v>
       </c>
-      <c r="D1" s="67" t="s">
+      <c r="E1" s="44" t="s">
         <v>445</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="F1" s="44" t="s">
         <v>446</v>
       </c>
-      <c r="F1" s="67" t="s">
+      <c r="G1" s="45" t="s">
         <v>447</v>
       </c>
-      <c r="G1" s="68" t="s">
+      <c r="H1" s="45" t="s">
         <v>448</v>
-      </c>
-      <c r="H1" s="68" t="s">
-        <v>449</v>
       </c>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
     </row>
     <row r="2" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="69" t="s">
-        <v>450</v>
-      </c>
-      <c r="B2" s="57"/>
+      <c r="A2" s="66" t="s">
+        <v>449</v>
+      </c>
+      <c r="B2" s="67"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
@@ -15580,10 +15575,10 @@
       <c r="K2" s="2"/>
     </row>
     <row r="3" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="68" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="50" t="str">
+      <c r="B3" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A3, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>リスク評価</v>
       </c>
@@ -15610,8 +15605,8 @@
       <c r="K3" s="2"/>
     </row>
     <row r="4" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
       <c r="C4" s="5"/>
       <c r="D4" s="6"/>
       <c r="E4" s="6"/>
@@ -15623,10 +15618,10 @@
       <c r="K4" s="2"/>
     </row>
     <row r="5" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="50" t="str">
+      <c r="B5" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A5, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティトレーニング</v>
       </c>
@@ -15653,8 +15648,8 @@
       <c r="K5" s="2"/>
     </row>
     <row r="6" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
+      <c r="A6" s="69"/>
+      <c r="B6" s="69"/>
       <c r="C6" s="6"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
@@ -15666,10 +15661,10 @@
       <c r="K6" s="2"/>
     </row>
     <row r="7" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="B7" s="50" t="str">
+      <c r="B7" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A7, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティ担当者</v>
       </c>
@@ -15696,8 +15691,8 @@
       <c r="K7" s="2"/>
     </row>
     <row r="8" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
+      <c r="A8" s="69"/>
+      <c r="B8" s="69"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="6"/>
@@ -15709,10 +15704,10 @@
       <c r="K8" s="2"/>
     </row>
     <row r="9" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="B9" s="50" t="str">
+      <c r="B9" s="68" t="str">
         <f>VLOOKUP(CONCATENATE($A9, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティレポート</v>
       </c>
@@ -15739,8 +15734,8 @@
       <c r="K9" s="2"/>
     </row>
     <row r="10" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
+      <c r="A10" s="69"/>
+      <c r="B10" s="69"/>
       <c r="C10" s="5"/>
       <c r="D10" s="6"/>
       <c r="E10" s="5"/>
@@ -15765,10 +15760,10 @@
       <c r="K11" s="2"/>
     </row>
     <row r="12" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>451</v>
-      </c>
-      <c r="B12" s="54"/>
+      <c r="A12" s="81" t="s">
+        <v>450</v>
+      </c>
+      <c r="B12" s="82"/>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
@@ -15780,10 +15775,10 @@
       <c r="K12" s="2"/>
     </row>
     <row r="13" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="52" t="s">
+      <c r="A13" s="79" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="52" t="str">
+      <c r="B13" s="79" t="str">
         <f>VLOOKUP(CONCATENATE($A13, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティポリシーと規制遵守</v>
       </c>
@@ -15810,8 +15805,8 @@
       <c r="K13" s="2"/>
     </row>
     <row r="14" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="53"/>
-      <c r="B14" s="53"/>
+      <c r="A14" s="80"/>
+      <c r="B14" s="80"/>
       <c r="C14" s="10"/>
       <c r="D14" s="6"/>
       <c r="E14" s="5"/>
@@ -15823,10 +15818,10 @@
       <c r="K14" s="2"/>
     </row>
     <row r="15" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="52" t="s">
+      <c r="A15" s="79" t="s">
         <v>1</v>
       </c>
-      <c r="B15" s="52" t="str">
+      <c r="B15" s="79" t="str">
         <f>VLOOKUP(CONCATENATE($A15, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティ要件と標準</v>
       </c>
@@ -15853,8 +15848,8 @@
       <c r="K15" s="2"/>
     </row>
     <row r="16" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="53"/>
-      <c r="B16" s="53"/>
+      <c r="A16" s="80"/>
+      <c r="B16" s="80"/>
       <c r="C16" s="5"/>
       <c r="D16" s="6"/>
       <c r="E16" s="5"/>
@@ -15866,10 +15861,10 @@
       <c r="K16" s="2"/>
     </row>
     <row r="17" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="52" t="s">
+      <c r="A17" s="79" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="52" t="str">
+      <c r="B17" s="79" t="str">
         <f>VLOOKUP(CONCATENATE($A17, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティユーザーストーリーと受け入れ基準</v>
       </c>
@@ -15896,8 +15891,8 @@
       <c r="K17" s="2"/>
     </row>
     <row r="18" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="53"/>
-      <c r="B18" s="53"/>
+      <c r="A18" s="80"/>
+      <c r="B18" s="80"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6"/>
       <c r="E18" s="5"/>
@@ -15909,10 +15904,10 @@
       <c r="K18" s="2"/>
     </row>
     <row r="19" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="52" t="s">
+      <c r="A19" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="52" t="str">
+      <c r="B19" s="79" t="str">
         <f>VLOOKUP(CONCATENATE($A19, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティ課題の追跡</v>
       </c>
@@ -15939,8 +15934,8 @@
       <c r="K19" s="2"/>
     </row>
     <row r="20" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="53"/>
-      <c r="B20" s="53"/>
+      <c r="A20" s="80"/>
+      <c r="B20" s="80"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6"/>
       <c r="E20" s="5"/>
@@ -15965,10 +15960,10 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="71" t="s">
-        <v>452</v>
-      </c>
-      <c r="B22" s="56"/>
+      <c r="A22" s="77" t="s">
+        <v>451</v>
+      </c>
+      <c r="B22" s="78"/>
       <c r="C22" s="11"/>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -15980,10 +15975,10 @@
       <c r="K22" s="2"/>
     </row>
     <row r="23" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
+      <c r="A23" s="76" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="55" t="str">
+      <c r="B23" s="76" t="str">
         <f>VLOOKUP(CONCATENATE($A23, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティアーキテクチャ設計レビュー</v>
       </c>
@@ -16010,8 +16005,8 @@
       <c r="K23" s="2"/>
     </row>
     <row r="24" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="49"/>
-      <c r="B24" s="49"/>
+      <c r="A24" s="73"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="5"/>
       <c r="D24" s="6"/>
       <c r="E24" s="5"/>
@@ -16023,10 +16018,10 @@
       <c r="K24" s="2"/>
     </row>
     <row r="25" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="48" t="s">
+      <c r="A25" s="72" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="48" t="str">
+      <c r="B25" s="72" t="str">
         <f>VLOOKUP(CONCATENATE($A25, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>脅威モデリング</v>
       </c>
@@ -16053,8 +16048,8 @@
       <c r="K25" s="2"/>
     </row>
     <row r="26" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="49"/>
-      <c r="B26" s="49"/>
+      <c r="A26" s="73"/>
+      <c r="B26" s="73"/>
       <c r="C26" s="5"/>
       <c r="D26" s="6"/>
       <c r="E26" s="5"/>
@@ -16066,10 +16061,10 @@
       <c r="K26" s="2"/>
     </row>
     <row r="27" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="48" t="s">
+      <c r="A27" s="72" t="s">
         <v>38</v>
       </c>
-      <c r="B27" s="48" t="str">
+      <c r="B27" s="72" t="str">
         <f>VLOOKUP(CONCATENATE($A27, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュアドキュメント</v>
       </c>
@@ -16096,8 +16091,8 @@
       <c r="K27" s="2"/>
     </row>
     <row r="28" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="49"/>
-      <c r="B28" s="49"/>
+      <c r="A28" s="73"/>
+      <c r="B28" s="73"/>
       <c r="C28" s="5"/>
       <c r="D28" s="6"/>
       <c r="E28" s="5"/>
@@ -16122,10 +16117,10 @@
       <c r="K29" s="2"/>
     </row>
     <row r="30" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="72" t="s">
-        <v>453</v>
-      </c>
-      <c r="B30" s="61"/>
+      <c r="A30" s="74" t="s">
+        <v>452</v>
+      </c>
+      <c r="B30" s="75"/>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13"/>
@@ -16137,10 +16132,10 @@
       <c r="K30" s="2"/>
     </row>
     <row r="31" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="59" t="s">
+      <c r="A31" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="B31" s="59" t="str">
+      <c r="B31" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A31, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュア開発環境</v>
       </c>
@@ -16154,7 +16149,7 @@
       </c>
       <c r="E31" s="14" t="str">
         <f>VLOOKUP(CONCATENATE($A31, "-", E$1),LevelDescription,2,FALSE)</f>
-        <v>管轄環境の堅牢化テンプレートを実装している。</v>
+        <v>開発環境の堅牢化テンプレートを実装している。</v>
       </c>
       <c r="F31" s="14" t="str">
         <f>VLOOKUP(CONCATENATE($A31, "-", F$1),LevelDescription,2,FALSE)</f>
@@ -16167,8 +16162,8 @@
       <c r="K31" s="2"/>
     </row>
     <row r="32" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="60"/>
-      <c r="B32" s="60"/>
+      <c r="A32" s="61"/>
+      <c r="B32" s="61"/>
       <c r="C32" s="5"/>
       <c r="D32" s="6"/>
       <c r="E32" s="5"/>
@@ -16180,10 +16175,10 @@
       <c r="K32" s="2"/>
     </row>
     <row r="33" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="59" t="s">
+      <c r="A33" s="60" t="s">
         <v>6</v>
       </c>
-      <c r="B33" s="59" t="str">
+      <c r="B33" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A33, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ハードコードされたシークレットの検出</v>
       </c>
@@ -16210,8 +16205,8 @@
       <c r="K33" s="2"/>
     </row>
     <row r="34" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="60"/>
-      <c r="B34" s="60"/>
+      <c r="A34" s="61"/>
+      <c r="B34" s="61"/>
       <c r="C34" s="6"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -16223,10 +16218,10 @@
       <c r="K34" s="2"/>
     </row>
     <row r="35" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="59" t="s">
+      <c r="A35" s="60" t="s">
         <v>7</v>
       </c>
-      <c r="B35" s="59" t="str">
+      <c r="B35" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A35, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>手動セキュアコードレビュー</v>
       </c>
@@ -16253,8 +16248,8 @@
       <c r="K35" s="2"/>
     </row>
     <row r="36" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="60"/>
-      <c r="B36" s="60"/>
+      <c r="A36" s="61"/>
+      <c r="B36" s="61"/>
       <c r="C36" s="6"/>
       <c r="D36" s="15"/>
       <c r="E36" s="5"/>
@@ -16266,10 +16261,10 @@
       <c r="K36" s="2"/>
     </row>
     <row r="37" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="59" t="s">
+      <c r="A37" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="59" t="str">
+      <c r="B37" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A37, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>静的アプリケーションセキュリティテスト (SAST)</v>
       </c>
@@ -16296,8 +16291,8 @@
       <c r="K37" s="2"/>
     </row>
     <row r="38" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="60"/>
-      <c r="B38" s="60"/>
+      <c r="A38" s="61"/>
+      <c r="B38" s="61"/>
       <c r="C38" s="6"/>
       <c r="D38" s="5"/>
       <c r="E38" s="15"/>
@@ -16309,10 +16304,10 @@
       <c r="K38" s="2"/>
     </row>
     <row r="39" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="59" t="s">
+      <c r="A39" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="B39" s="59" t="str">
+      <c r="B39" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A39, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ソフトウェアコンポジション解析 (SCA)</v>
       </c>
@@ -16339,8 +16334,8 @@
       <c r="K39" s="2"/>
     </row>
     <row r="40" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="60"/>
-      <c r="B40" s="60"/>
+      <c r="A40" s="61"/>
+      <c r="B40" s="61"/>
       <c r="C40" s="6"/>
       <c r="D40" s="5"/>
       <c r="E40" s="15"/>
@@ -16352,10 +16347,10 @@
       <c r="K40" s="2"/>
     </row>
     <row r="41" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="59" t="s">
+      <c r="A41" s="60" t="s">
         <v>10</v>
       </c>
-      <c r="B41" s="59" t="str">
+      <c r="B41" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A41, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ソフトウェアライセンスコンプライアンス</v>
       </c>
@@ -16382,8 +16377,8 @@
       <c r="K41" s="2"/>
     </row>
     <row r="42" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="60"/>
-      <c r="B42" s="60"/>
+      <c r="A42" s="61"/>
+      <c r="B42" s="61"/>
       <c r="C42" s="6"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -16395,10 +16390,10 @@
       <c r="K42" s="2"/>
     </row>
     <row r="43" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="59" t="s">
+      <c r="A43" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B43" s="59" t="str">
+      <c r="B43" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A43, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>インライン IDE セキュアコード解析</v>
       </c>
@@ -16425,8 +16420,8 @@
       <c r="K43" s="2"/>
     </row>
     <row r="44" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="60"/>
-      <c r="B44" s="60"/>
+      <c r="A44" s="61"/>
+      <c r="B44" s="61"/>
       <c r="C44" s="6"/>
       <c r="D44" s="15"/>
       <c r="E44" s="5"/>
@@ -16438,10 +16433,10 @@
       <c r="K44" s="2"/>
     </row>
     <row r="45" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="B45" s="59" t="str">
+      <c r="B45" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A45, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>コンテナセキュリティスキャン</v>
       </c>
@@ -16468,8 +16463,8 @@
       <c r="K45" s="2"/>
     </row>
     <row r="46" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="60"/>
-      <c r="B46" s="60"/>
+      <c r="A46" s="61"/>
+      <c r="B46" s="61"/>
       <c r="C46" s="6"/>
       <c r="D46" s="5"/>
       <c r="E46" s="15"/>
@@ -16481,10 +16476,10 @@
       <c r="K46" s="2"/>
     </row>
     <row r="47" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="59" t="s">
+      <c r="A47" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B47" s="59" t="str">
+      <c r="B47" s="60" t="str">
         <f>VLOOKUP(CONCATENATE($A47, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュア依存関係管理</v>
       </c>
@@ -16511,8 +16506,8 @@
       <c r="K47" s="2"/>
     </row>
     <row r="48" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="60"/>
-      <c r="B48" s="60"/>
+      <c r="A48" s="61"/>
+      <c r="B48" s="61"/>
       <c r="C48" s="6"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -16537,10 +16532,10 @@
       <c r="K49" s="2"/>
     </row>
     <row r="50" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="73" t="s">
-        <v>454</v>
-      </c>
-      <c r="B50" s="58"/>
+      <c r="A50" s="70" t="s">
+        <v>453</v>
+      </c>
+      <c r="B50" s="71"/>
       <c r="C50" s="16"/>
       <c r="D50" s="16"/>
       <c r="E50" s="16"/>
@@ -16551,11 +16546,11 @@
       <c r="J50" s="2"/>
       <c r="K50" s="2"/>
     </row>
-    <row r="51" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="45" t="s">
+    <row r="51" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="B51" s="45" t="str">
+      <c r="B51" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A51, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティテスト管理</v>
       </c>
@@ -16582,8 +16577,8 @@
       <c r="K51" s="2"/>
     </row>
     <row r="52" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="46"/>
-      <c r="B52" s="46"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="65"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="6"/>
@@ -16595,10 +16590,10 @@
       <c r="K52" s="2"/>
     </row>
     <row r="53" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="45" t="s">
+      <c r="A53" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="B53" s="45" t="str">
+      <c r="B53" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A53, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>動的アプリケーションセキュリティテスト (DAST)</v>
       </c>
@@ -16625,8 +16620,8 @@
       <c r="K53" s="2"/>
     </row>
     <row r="54" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="46"/>
-      <c r="B54" s="46"/>
+      <c r="A54" s="65"/>
+      <c r="B54" s="65"/>
       <c r="C54" s="6"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -16638,10 +16633,10 @@
       <c r="K54" s="2"/>
     </row>
     <row r="55" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
+      <c r="A55" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B55" s="45" t="str">
+      <c r="B55" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A55, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>インタラクティブアプリケーションセキュリティテスト (IAST)</v>
       </c>
@@ -16668,8 +16663,8 @@
       <c r="K55" s="2"/>
     </row>
     <row r="56" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="46"/>
-      <c r="B56" s="46"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="65"/>
       <c r="C56" s="6"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -16681,10 +16676,10 @@
       <c r="K56" s="2"/>
     </row>
     <row r="57" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="45" t="s">
+      <c r="A57" s="64" t="s">
         <v>15</v>
       </c>
-      <c r="B57" s="45" t="str">
+      <c r="B57" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A57, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>ペネトレーションテスト</v>
       </c>
@@ -16711,8 +16706,8 @@
       <c r="K57" s="2"/>
     </row>
     <row r="58" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="46"/>
-      <c r="B58" s="46"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="65"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -16724,10 +16719,10 @@
       <c r="K58" s="2"/>
     </row>
     <row r="59" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="45" t="s">
+      <c r="A59" s="64" t="s">
         <v>16</v>
       </c>
-      <c r="B59" s="45" t="str">
+      <c r="B59" s="64" t="str">
         <f>VLOOKUP(CONCATENATE($A59, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティテストカバレッジ</v>
       </c>
@@ -16754,8 +16749,8 @@
       <c r="K59" s="2"/>
     </row>
     <row r="60" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="46"/>
-      <c r="B60" s="46"/>
+      <c r="A60" s="65"/>
+      <c r="B60" s="65"/>
       <c r="C60" s="5"/>
       <c r="D60" s="6"/>
       <c r="E60" s="5"/>
@@ -16780,10 +16775,10 @@
       <c r="K61" s="2"/>
     </row>
     <row r="62" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="74" t="s">
-        <v>455</v>
-      </c>
-      <c r="B62" s="47"/>
+      <c r="A62" s="87" t="s">
+        <v>454</v>
+      </c>
+      <c r="B62" s="88"/>
       <c r="C62" s="18"/>
       <c r="D62" s="18"/>
       <c r="E62" s="18"/>
@@ -16795,10 +16790,10 @@
       <c r="K62" s="2"/>
     </row>
     <row r="63" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="43" t="s">
+      <c r="A63" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="B63" s="43" t="str">
+      <c r="B63" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A63, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>成果物署名</v>
       </c>
@@ -16825,8 +16820,8 @@
       <c r="K63" s="2"/>
     </row>
     <row r="64" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="44"/>
-      <c r="B64" s="44"/>
+      <c r="A64" s="63"/>
+      <c r="B64" s="63"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="5"/>
@@ -16838,10 +16833,10 @@
       <c r="K64" s="2"/>
     </row>
     <row r="65" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="B65" s="43" t="str">
+      <c r="B65" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A65, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュア成果物管理</v>
       </c>
@@ -16868,8 +16863,8 @@
       <c r="K65" s="2"/>
     </row>
     <row r="66" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="44"/>
-      <c r="B66" s="44"/>
+      <c r="A66" s="63"/>
+      <c r="B66" s="63"/>
       <c r="C66" s="6"/>
       <c r="D66" s="15"/>
       <c r="E66" s="5"/>
@@ -16880,11 +16875,11 @@
       <c r="J66" s="2"/>
       <c r="K66" s="2"/>
     </row>
-    <row r="67" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="43" t="s">
+    <row r="67" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B67" s="43" t="str">
+      <c r="B67" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A67, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>シークレット管理</v>
       </c>
@@ -16911,8 +16906,8 @@
       <c r="K67" s="2"/>
     </row>
     <row r="68" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="44"/>
-      <c r="B68" s="44"/>
+      <c r="A68" s="63"/>
+      <c r="B68" s="63"/>
       <c r="C68" s="5"/>
       <c r="D68" s="6"/>
       <c r="E68" s="5"/>
@@ -16924,10 +16919,10 @@
       <c r="K68" s="2"/>
     </row>
     <row r="69" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="43" t="s">
+      <c r="A69" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="B69" s="43" t="str">
+      <c r="B69" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A69, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュアコンフィグレーション</v>
       </c>
@@ -16954,8 +16949,8 @@
       <c r="K69" s="2"/>
     </row>
     <row r="70" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="44"/>
-      <c r="B70" s="44"/>
+      <c r="A70" s="63"/>
+      <c r="B70" s="63"/>
       <c r="C70" s="5"/>
       <c r="D70" s="6"/>
       <c r="E70" s="5"/>
@@ -16967,10 +16962,10 @@
       <c r="K70" s="2"/>
     </row>
     <row r="71" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B71" s="43" t="str">
+      <c r="B71" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A71, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュリティポリシーの実施</v>
       </c>
@@ -16997,8 +16992,8 @@
       <c r="K71" s="2"/>
     </row>
     <row r="72" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="44"/>
-      <c r="B72" s="44"/>
+      <c r="A72" s="63"/>
+      <c r="B72" s="63"/>
       <c r="C72" s="6"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -17010,10 +17005,10 @@
       <c r="K72" s="2"/>
     </row>
     <row r="73" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="62" t="s">
         <v>22</v>
       </c>
-      <c r="B73" s="43" t="str">
+      <c r="B73" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A73, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>Infrastructure-as-Code (IaC) セキュアデプロイメント</v>
       </c>
@@ -17040,8 +17035,8 @@
       <c r="K73" s="2"/>
     </row>
     <row r="74" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="44"/>
-      <c r="B74" s="44"/>
+      <c r="A74" s="63"/>
+      <c r="B74" s="63"/>
       <c r="C74" s="6"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -17053,10 +17048,10 @@
       <c r="K74" s="2"/>
     </row>
     <row r="75" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="43" t="s">
+      <c r="A75" s="62" t="s">
         <v>23</v>
       </c>
-      <c r="B75" s="43" t="str">
+      <c r="B75" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A75, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>コンプライアンススキャン</v>
       </c>
@@ -17083,8 +17078,8 @@
       <c r="K75" s="2"/>
     </row>
     <row r="76" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="44"/>
-      <c r="B76" s="44"/>
+      <c r="A76" s="63"/>
+      <c r="B76" s="63"/>
       <c r="C76" s="6"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -17096,10 +17091,10 @@
       <c r="K76" s="2"/>
     </row>
     <row r="77" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="62" t="s">
         <v>36</v>
       </c>
-      <c r="B77" s="43" t="str">
+      <c r="B77" s="62" t="str">
         <f>VLOOKUP(CONCATENATE($A77, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>セキュアリリース管理</v>
       </c>
@@ -17126,8 +17121,8 @@
       <c r="K77" s="2"/>
     </row>
     <row r="78" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="44"/>
-      <c r="B78" s="44"/>
+      <c r="A78" s="63"/>
+      <c r="B78" s="63"/>
       <c r="C78" s="5"/>
       <c r="D78" s="6"/>
       <c r="E78" s="5"/>
@@ -17152,10 +17147,10 @@
       <c r="K79" s="2"/>
     </row>
     <row r="80" spans="1:11" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="75" t="s">
-        <v>456</v>
-      </c>
-      <c r="B80" s="62"/>
+      <c r="A80" s="85" t="s">
+        <v>455</v>
+      </c>
+      <c r="B80" s="86"/>
       <c r="C80" s="20"/>
       <c r="D80" s="20"/>
       <c r="E80" s="20"/>
@@ -17167,10 +17162,10 @@
       <c r="K80" s="2"/>
     </row>
     <row r="81" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="41" t="s">
+      <c r="A81" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="B81" s="41" t="str">
+      <c r="B81" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A81, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>環境の堅牢化</v>
       </c>
@@ -17197,8 +17192,8 @@
       <c r="K81" s="2"/>
     </row>
     <row r="82" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="42"/>
-      <c r="B82" s="42"/>
+      <c r="A82" s="84"/>
+      <c r="B82" s="84"/>
       <c r="C82" s="6"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -17210,10 +17205,10 @@
       <c r="K82" s="2"/>
     </row>
     <row r="83" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="41" t="s">
+      <c r="A83" s="83" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="41" t="str">
+      <c r="B83" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A83, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>アプリケーションの堅牢化</v>
       </c>
@@ -17240,8 +17235,8 @@
       <c r="K83" s="2"/>
     </row>
     <row r="84" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="42"/>
-      <c r="B84" s="42"/>
+      <c r="A84" s="84"/>
+      <c r="B84" s="84"/>
       <c r="C84" s="6"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -17253,10 +17248,10 @@
       <c r="K84" s="2"/>
     </row>
     <row r="85" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="41" t="s">
+      <c r="A85" s="83" t="s">
         <v>26</v>
       </c>
-      <c r="B85" s="41" t="str">
+      <c r="B85" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A85, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>環境セキュリティログ記録</v>
       </c>
@@ -17283,8 +17278,8 @@
       <c r="K85" s="2"/>
     </row>
     <row r="86" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="42"/>
-      <c r="B86" s="42"/>
+      <c r="A86" s="84"/>
+      <c r="B86" s="84"/>
       <c r="C86" s="5"/>
       <c r="D86" s="6"/>
       <c r="E86" s="5"/>
@@ -17296,10 +17291,10 @@
       <c r="K86" s="2"/>
     </row>
     <row r="87" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="41" t="s">
+      <c r="A87" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="B87" s="41" t="str">
+      <c r="B87" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A87, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>アプリケーションセキュリティログ記録</v>
       </c>
@@ -17326,8 +17321,8 @@
       <c r="K87" s="2"/>
     </row>
     <row r="88" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="42"/>
-      <c r="B88" s="42"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="84"/>
       <c r="C88" s="5"/>
       <c r="D88" s="6"/>
       <c r="E88" s="5"/>
@@ -17339,10 +17334,10 @@
       <c r="K88" s="2"/>
     </row>
     <row r="89" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="41" t="s">
+      <c r="A89" s="83" t="s">
         <v>28</v>
       </c>
-      <c r="B89" s="41" t="str">
+      <c r="B89" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A89, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>脆弱性の開示</v>
       </c>
@@ -17369,8 +17364,8 @@
       <c r="K89" s="2"/>
     </row>
     <row r="90" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="42"/>
-      <c r="B90" s="42"/>
+      <c r="A90" s="84"/>
+      <c r="B90" s="84"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="5"/>
@@ -17382,10 +17377,10 @@
       <c r="K90" s="2"/>
     </row>
     <row r="91" spans="1:11" ht="28.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="41" t="s">
+      <c r="A91" s="83" t="s">
         <v>29</v>
       </c>
-      <c r="B91" s="41" t="str">
+      <c r="B91" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A91, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>証明書管理</v>
       </c>
@@ -17412,8 +17407,8 @@
       <c r="K91" s="2"/>
     </row>
     <row r="92" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="42"/>
-      <c r="B92" s="42"/>
+      <c r="A92" s="84"/>
+      <c r="B92" s="84"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="6"/>
@@ -17425,10 +17420,10 @@
       <c r="K92" s="2"/>
     </row>
     <row r="93" spans="1:11" ht="42.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="41" t="s">
+      <c r="A93" s="83" t="s">
         <v>39</v>
       </c>
-      <c r="B93" s="41" t="str">
+      <c r="B93" s="83" t="str">
         <f>VLOOKUP(CONCATENATE($A93, "-", B$1),LevelDescription,2,FALSE)</f>
         <v>攻撃対象領域管理</v>
       </c>
@@ -17455,8 +17450,8 @@
       <c r="K93" s="2"/>
     </row>
     <row r="94" spans="1:11" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="42"/>
-      <c r="B94" s="42"/>
+      <c r="A94" s="84"/>
+      <c r="B94" s="84"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="6"/>
@@ -29351,27 +29346,56 @@
     </row>
   </sheetData>
   <mergeCells count="87">
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B67:B68"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="A75:A76"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="B75:B76"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="B57:B58"/>
+    <mergeCell ref="B59:B60"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A83:A84"/>
+    <mergeCell ref="B83:B84"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:B86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="B91:B92"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -29388,56 +29412,27 @@
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="B39:B40"/>
     <mergeCell ref="B41:B42"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A83:A84"/>
-    <mergeCell ref="B83:B84"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:B86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="B91:B92"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="B75:B76"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="B57:B58"/>
-    <mergeCell ref="B59:B60"/>
-    <mergeCell ref="A62:B62"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="A75:A76"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B67:B68"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="1">
@@ -29469,20 +29464,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D1" s="76" t="s">
+      <c r="D1" s="89" t="s">
+        <v>456</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="89" t="s">
         <v>457</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="76" t="s">
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="53" t="s">
         <v>458</v>
-      </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-    </row>
-    <row r="2" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="84" t="s">
-        <v>459</v>
       </c>
       <c r="D2" s="26">
         <f>SUMIF($B$11:$B$50, $A2,D$11:D$50)/COUNTIF($B$11:$B$50,$A2)</f>
@@ -29494,8 +29489,8 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="85" t="s">
-        <v>460</v>
+      <c r="A3" s="54" t="s">
+        <v>459</v>
       </c>
       <c r="D3" s="26">
         <f t="shared" ref="D3:D8" si="0">SUMIF($B$11:$B$50, $A3,D$11:D$50)/COUNTIF($B$11:$B$50,$A3)</f>
@@ -29507,8 +29502,8 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="86" t="s">
-        <v>461</v>
+      <c r="A4" s="55" t="s">
+        <v>460</v>
       </c>
       <c r="D4" s="26">
         <f t="shared" si="0"/>
@@ -29520,8 +29515,8 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="87" t="s">
-        <v>462</v>
+      <c r="A5" s="56" t="s">
+        <v>461</v>
       </c>
       <c r="D5" s="26">
         <f t="shared" si="0"/>
@@ -29533,8 +29528,8 @@
       </c>
     </row>
     <row r="6" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="88" t="s">
-        <v>463</v>
+      <c r="A6" s="57" t="s">
+        <v>462</v>
       </c>
       <c r="D6" s="26">
         <f t="shared" si="0"/>
@@ -29546,8 +29541,8 @@
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="89" t="s">
-        <v>464</v>
+      <c r="A7" s="58" t="s">
+        <v>463</v>
       </c>
       <c r="D7" s="26">
         <f t="shared" si="0"/>
@@ -29559,8 +29554,8 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="90" t="s">
-        <v>465</v>
+      <c r="A8" s="59" t="s">
+        <v>464</v>
       </c>
       <c r="D8" s="26">
         <f t="shared" si="0"/>
@@ -29573,38 +29568,38 @@
     </row>
     <row r="9" spans="1:9" ht="13.8" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="1:9" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="D10" s="76" t="s">
+      <c r="D10" s="89" t="s">
+        <v>456</v>
+      </c>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="89" t="s">
         <v>457</v>
       </c>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="76" t="s">
-        <v>458</v>
-      </c>
-      <c r="H10" s="63"/>
-      <c r="I10" s="63"/>
+      <c r="H10" s="90"/>
+      <c r="I10" s="90"/>
     </row>
     <row r="11" spans="1:9" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="77" t="s">
-        <v>459</v>
+      <c r="B11" s="46" t="s">
+        <v>458</v>
       </c>
       <c r="C11" s="27" t="str">
-        <f>VLOOKUP(CONCATENATE($A11,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="C11:C50" si="2">VLOOKUP(CONCATENATE($A11,"-","ストリーム"),LevelDescription,2,FALSE)</f>
         <v>リスク評価</v>
       </c>
       <c r="D11" s="27">
-        <f t="shared" ref="D11:D50" si="2">IFERROR(VLOOKUP(E11,Levels,2),0)</f>
+        <f t="shared" ref="D11:D50" si="3">IFERROR(VLOOKUP(E11,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="E11" s="28">
-        <f t="shared" ref="E11:E50" si="3">VLOOKUP($A11,INTERVIEW,7,FALSE)</f>
+        <f t="shared" ref="E11:E50" si="4">VLOOKUP($A11,INTERVIEW,7,FALSE)</f>
         <v>0</v>
       </c>
       <c r="F11" s="28" t="e">
-        <f t="shared" ref="F11:F50" si="4">VLOOKUP(CONCATENATE($A11,"-",IFERROR(VLOOKUP(E11,Levels,3),0)),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="F11:F50" si="5">VLOOKUP(CONCATENATE($A11,"-",IFERROR(VLOOKUP(E11,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G11" s="27">
@@ -29612,11 +29607,11 @@
         <v>0</v>
       </c>
       <c r="H11" s="28">
-        <f t="shared" ref="H11:H50" si="5">VLOOKUP($A11,INTERVIEW,8,FALSE)</f>
+        <f t="shared" ref="H11:H50" si="6">VLOOKUP($A11,INTERVIEW,8,FALSE)</f>
         <v>0</v>
       </c>
       <c r="I11" s="28" t="e">
-        <f t="shared" ref="I11:I50" si="6">VLOOKUP(CONCATENATE($A11,"-",IFERROR(VLOOKUP(H11,Levels,3),0)),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="I11:I50" si="7">VLOOKUP(CONCATENATE($A11,"-",IFERROR(VLOOKUP(H11,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29624,35 +29619,35 @@
       <c r="A12" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="77" t="s">
-        <v>459</v>
+      <c r="B12" s="46" t="s">
+        <v>458</v>
       </c>
       <c r="C12" s="27" t="str">
-        <f>VLOOKUP(CONCATENATE($A12,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティトレーニング</v>
       </c>
       <c r="D12" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E12" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G12" s="27">
-        <f t="shared" ref="G12:G22" si="7">IFERROR(VLOOKUP(H12,Levels,2),0)</f>
+        <f t="shared" ref="G12:G22" si="8">IFERROR(VLOOKUP(H12,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="H12" s="28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I12" s="28" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29660,35 +29655,35 @@
       <c r="A13" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="77" t="s">
-        <v>459</v>
+      <c r="B13" s="46" t="s">
+        <v>458</v>
       </c>
       <c r="C13" s="27" t="str">
-        <f>VLOOKUP(CONCATENATE($A13,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティ担当者</v>
       </c>
       <c r="D13" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E13" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E13" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F13" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G13" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H13" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="28" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H13" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I13" s="28" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29696,35 +29691,35 @@
       <c r="A14" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B14" s="77" t="s">
-        <v>459</v>
+      <c r="B14" s="46" t="s">
+        <v>458</v>
       </c>
       <c r="C14" s="27" t="str">
-        <f>VLOOKUP(CONCATENATE($A14,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティレポート</v>
       </c>
       <c r="D14" s="27">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E14" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E14" s="28">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F14" s="28" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G14" s="27">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H14" s="28">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="28" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="28">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="28" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29732,35 +29727,35 @@
       <c r="A15" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="78" t="s">
-        <v>460</v>
+      <c r="B15" s="47" t="s">
+        <v>459</v>
       </c>
       <c r="C15" s="29" t="str">
-        <f>VLOOKUP(CONCATENATE($A15,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティポリシーと規制遵守</v>
       </c>
       <c r="D15" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E15" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F15" s="30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G15" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H15" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I15" s="30" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H15" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I15" s="30" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29768,35 +29763,35 @@
       <c r="A16" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B16" s="78" t="s">
-        <v>460</v>
+      <c r="B16" s="47" t="s">
+        <v>459</v>
       </c>
       <c r="C16" s="29" t="str">
-        <f>VLOOKUP(CONCATENATE($A16,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティ要件と標準</v>
       </c>
       <c r="D16" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E16" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F16" s="30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G16" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H16" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I16" s="30" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H16" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I16" s="30" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29804,35 +29799,35 @@
       <c r="A17" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="B17" s="78" t="s">
-        <v>460</v>
+      <c r="B17" s="47" t="s">
+        <v>459</v>
       </c>
       <c r="C17" s="29" t="str">
-        <f>VLOOKUP(CONCATENATE($A17,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティユーザーストーリーと受け入れ基準</v>
       </c>
       <c r="D17" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E17" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F17" s="30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G17" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H17" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I17" s="30" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H17" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I17" s="30" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29840,35 +29835,35 @@
       <c r="A18" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B18" s="78" t="s">
-        <v>460</v>
+      <c r="B18" s="47" t="s">
+        <v>459</v>
       </c>
       <c r="C18" s="29" t="str">
-        <f>VLOOKUP(CONCATENATE($A18,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティ課題の追跡</v>
       </c>
       <c r="D18" s="29">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="30">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E18" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F18" s="30" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G18" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H18" s="30">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I18" s="30" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="30">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I18" s="30" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29876,35 +29871,35 @@
       <c r="A19" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B19" s="79" t="s">
-        <v>461</v>
+      <c r="B19" s="48" t="s">
+        <v>460</v>
       </c>
       <c r="C19" s="31" t="str">
-        <f>VLOOKUP(CONCATENATE($A19,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティアーキテクチャ設計レビュー</v>
       </c>
       <c r="D19" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E19" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F19" s="32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G19" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H19" s="32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I19" s="32" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H19" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I19" s="32" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29912,35 +29907,35 @@
       <c r="A20" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="79" t="s">
-        <v>461</v>
+      <c r="B20" s="48" t="s">
+        <v>460</v>
       </c>
       <c r="C20" s="31" t="str">
-        <f>VLOOKUP(CONCATENATE($A20,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>脅威モデリング</v>
       </c>
       <c r="D20" s="31">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="32">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E20" s="32">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F20" s="32" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G20" s="31">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H20" s="32">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I20" s="32" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H20" s="32">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I20" s="32" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -29948,35 +29943,35 @@
       <c r="A21" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="79" t="s">
-        <v>461</v>
+      <c r="B21" s="48" t="s">
+        <v>460</v>
       </c>
       <c r="C21" s="31" t="str">
-        <f>VLOOKUP(CONCATENATE($A21,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュアドキュメント</v>
       </c>
       <c r="D21" s="31">
-        <f t="shared" ref="D21" si="8">IFERROR(VLOOKUP(E21,Levels,2),0)</f>
+        <f t="shared" ref="D21" si="9">IFERROR(VLOOKUP(E21,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="E21" s="32">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F21" s="32" t="e">
-        <f t="shared" ref="F21" si="9">VLOOKUP(CONCATENATE($A21,"-",IFERROR(VLOOKUP(E21,Levels,3),0)),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="F21" si="10">VLOOKUP(CONCATENATE($A21,"-",IFERROR(VLOOKUP(E21,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G21" s="31">
-        <f t="shared" ref="G21" si="10">IFERROR(VLOOKUP(H21,Levels,2),0)</f>
+        <f t="shared" ref="G21" si="11">IFERROR(VLOOKUP(H21,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="H21" s="32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I21" s="32" t="e">
-        <f t="shared" ref="I21" si="11">VLOOKUP(CONCATENATE($A21,"-",IFERROR(VLOOKUP(H21,Levels,3),0)),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="I21" si="12">VLOOKUP(CONCATENATE($A21,"-",IFERROR(VLOOKUP(H21,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -29984,35 +29979,35 @@
       <c r="A22" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="80" t="s">
-        <v>462</v>
+      <c r="B22" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C22" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A22,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュア開発環境</v>
       </c>
       <c r="D22" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E22" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E22" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F22" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G22" s="33">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="34">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="34" t="e">
         <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <f t="shared" si="5"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="34" t="e">
-        <f t="shared" si="6"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30020,11 +30015,11 @@
       <c r="A23" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B23" s="80" t="s">
-        <v>462</v>
+      <c r="B23" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C23" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A23,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ハードコードされたシークレットの検出</v>
       </c>
       <c r="D23" s="33">
@@ -30032,11 +30027,11 @@
         <v>0</v>
       </c>
       <c r="E23" s="34">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F23" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G23" s="33">
@@ -30044,11 +30039,11 @@
         <v>0</v>
       </c>
       <c r="H23" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I23" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30056,35 +30051,35 @@
       <c r="A24" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B24" s="80" t="s">
-        <v>462</v>
+      <c r="B24" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C24" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A24,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>手動セキュアコードレビュー</v>
       </c>
       <c r="D24" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E24" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E24" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F24" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G24" s="33">
-        <f t="shared" ref="G24:G50" si="12">IFERROR(VLOOKUP(H24,Levels,2),0)</f>
+        <f t="shared" ref="G24:G50" si="13">IFERROR(VLOOKUP(H24,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="H24" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I24" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30092,35 +30087,35 @@
       <c r="A25" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B25" s="80" t="s">
-        <v>462</v>
+      <c r="B25" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C25" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A25,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>静的アプリケーションセキュリティテスト (SAST)</v>
       </c>
       <c r="D25" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E25" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E25" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F25" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G25" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H25" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I25" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30128,35 +30123,35 @@
       <c r="A26" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B26" s="80" t="s">
-        <v>462</v>
+      <c r="B26" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C26" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A26,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ソフトウェアコンポジション解析 (SCA)</v>
       </c>
       <c r="D26" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E26" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E26" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F26" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G26" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H26" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I26" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30164,35 +30159,35 @@
       <c r="A27" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="B27" s="80" t="s">
-        <v>462</v>
+      <c r="B27" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C27" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A27,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ソフトウェアライセンスコンプライアンス</v>
       </c>
       <c r="D27" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E27" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E27" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F27" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G27" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H27" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I27" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30200,35 +30195,35 @@
       <c r="A28" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="80" t="s">
-        <v>462</v>
+      <c r="B28" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C28" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A28,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>インライン IDE セキュアコード解析</v>
       </c>
       <c r="D28" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E28" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E28" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F28" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G28" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H28" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I28" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30236,35 +30231,35 @@
       <c r="A29" s="33" t="s">
         <v>30</v>
       </c>
-      <c r="B29" s="80" t="s">
-        <v>462</v>
+      <c r="B29" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C29" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A29,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>コンテナセキュリティスキャン</v>
       </c>
       <c r="D29" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E29" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E29" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F29" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G29" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H29" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I29" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30272,35 +30267,35 @@
       <c r="A30" s="33" t="s">
         <v>37</v>
       </c>
-      <c r="B30" s="80" t="s">
-        <v>462</v>
+      <c r="B30" s="49" t="s">
+        <v>461</v>
       </c>
       <c r="C30" s="33" t="str">
-        <f>VLOOKUP(CONCATENATE($A30,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュア依存関係管理</v>
       </c>
       <c r="D30" s="33">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E30" s="34">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E30" s="34">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F30" s="34" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G30" s="33">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H30" s="34">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I30" s="34" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30308,35 +30303,35 @@
       <c r="A31" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="81" t="s">
-        <v>463</v>
+      <c r="B31" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="C31" s="35" t="str">
-        <f>VLOOKUP(CONCATENATE($A31,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティテスト管理</v>
       </c>
       <c r="D31" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E31" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E31" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F31" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G31" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H31" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I31" s="36" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30344,35 +30339,35 @@
       <c r="A32" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="B32" s="81" t="s">
-        <v>463</v>
+      <c r="B32" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="C32" s="35" t="str">
-        <f>VLOOKUP(CONCATENATE($A32,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>動的アプリケーションセキュリティテスト (DAST)</v>
       </c>
       <c r="D32" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E32" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E32" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F32" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G32" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H32" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I32" s="36" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30380,35 +30375,35 @@
       <c r="A33" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="B33" s="81" t="s">
-        <v>463</v>
+      <c r="B33" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="C33" s="35" t="str">
-        <f>VLOOKUP(CONCATENATE($A33,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>インタラクティブアプリケーションセキュリティテスト (IAST)</v>
       </c>
       <c r="D33" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E33" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E33" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F33" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G33" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H33" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I33" s="36" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30416,35 +30411,35 @@
       <c r="A34" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="B34" s="81" t="s">
-        <v>463</v>
+      <c r="B34" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="C34" s="35" t="str">
-        <f>VLOOKUP(CONCATENATE($A34,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>ペネトレーションテスト</v>
       </c>
       <c r="D34" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E34" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E34" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F34" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G34" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H34" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I34" s="36" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30452,35 +30447,35 @@
       <c r="A35" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="B35" s="81" t="s">
-        <v>463</v>
+      <c r="B35" s="50" t="s">
+        <v>462</v>
       </c>
       <c r="C35" s="35" t="str">
-        <f>VLOOKUP(CONCATENATE($A35,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティテストカバレッジ</v>
       </c>
       <c r="D35" s="35">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E35" s="36">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E35" s="36">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F35" s="36" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G35" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H35" s="36">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I35" s="36" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30488,35 +30483,35 @@
       <c r="A36" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="B36" s="82" t="s">
-        <v>464</v>
+      <c r="B36" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C36" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A36,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>成果物署名</v>
       </c>
       <c r="D36" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E36" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E36" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F36" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G36" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H36" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I36" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30524,35 +30519,35 @@
       <c r="A37" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="B37" s="82" t="s">
-        <v>464</v>
+      <c r="B37" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C37" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A37,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュア成果物管理</v>
       </c>
       <c r="D37" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E37" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E37" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F37" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G37" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H37" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I37" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30560,35 +30555,35 @@
       <c r="A38" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="B38" s="82" t="s">
-        <v>464</v>
+      <c r="B38" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C38" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A38,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>シークレット管理</v>
       </c>
       <c r="D38" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E38" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E38" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F38" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G38" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H38" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I38" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30596,35 +30591,35 @@
       <c r="A39" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="82" t="s">
-        <v>464</v>
+      <c r="B39" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C39" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A39,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュアコンフィグレーション</v>
       </c>
       <c r="D39" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E39" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E39" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F39" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G39" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H39" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I39" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30632,35 +30627,35 @@
       <c r="A40" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="B40" s="82" t="s">
-        <v>464</v>
+      <c r="B40" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C40" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A40,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュリティポリシーの実施</v>
       </c>
       <c r="D40" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E40" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E40" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F40" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G40" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H40" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I40" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30668,35 +30663,35 @@
       <c r="A41" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="B41" s="82" t="s">
-        <v>464</v>
+      <c r="B41" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C41" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A41,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>Infrastructure-as-Code (IaC) セキュアデプロイメント</v>
       </c>
       <c r="D41" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E41" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E41" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F41" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G41" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H41" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I41" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30704,35 +30699,35 @@
       <c r="A42" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="B42" s="82" t="s">
-        <v>464</v>
+      <c r="B42" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C42" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A42,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>コンプライアンススキャン</v>
       </c>
       <c r="D42" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E42" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E42" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F42" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G42" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H42" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I42" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30740,35 +30735,35 @@
       <c r="A43" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B43" s="82" t="s">
-        <v>464</v>
+      <c r="B43" s="51" t="s">
+        <v>463</v>
       </c>
       <c r="C43" s="37" t="str">
-        <f>VLOOKUP(CONCATENATE($A43,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>セキュアリリース管理</v>
       </c>
       <c r="D43" s="37">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E43" s="38">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E43" s="38">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F43" s="38" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G43" s="37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H43" s="38">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I43" s="38" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30776,35 +30771,35 @@
       <c r="A44" s="39" t="s">
         <v>24</v>
       </c>
-      <c r="B44" s="83" t="s">
-        <v>465</v>
+      <c r="B44" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C44" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A44,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>環境の堅牢化</v>
       </c>
       <c r="D44" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E44" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E44" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F44" s="40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G44" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H44" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I44" s="40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30812,35 +30807,35 @@
       <c r="A45" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="B45" s="83" t="s">
-        <v>465</v>
+      <c r="B45" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C45" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A45,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>アプリケーションの堅牢化</v>
       </c>
       <c r="D45" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E45" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E45" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F45" s="40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G45" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H45" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I45" s="40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30848,35 +30843,35 @@
       <c r="A46" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B46" s="83" t="s">
-        <v>465</v>
+      <c r="B46" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C46" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A46,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>環境セキュリティログ記録</v>
       </c>
       <c r="D46" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E46" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E46" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F46" s="40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G46" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H46" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I46" s="40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30884,35 +30879,35 @@
       <c r="A47" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="B47" s="83" t="s">
-        <v>465</v>
+      <c r="B47" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C47" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A47,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>アプリケーションセキュリティログ記録</v>
       </c>
       <c r="D47" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E47" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E47" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F47" s="40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G47" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H47" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I47" s="40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30920,35 +30915,35 @@
       <c r="A48" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="B48" s="83" t="s">
-        <v>465</v>
+      <c r="B48" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C48" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A48,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>脆弱性の開示</v>
       </c>
       <c r="D48" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E48" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E48" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F48" s="40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G48" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H48" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I48" s="40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -30956,35 +30951,35 @@
       <c r="A49" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="B49" s="83" t="s">
-        <v>465</v>
+      <c r="B49" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C49" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A49,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>証明書管理</v>
       </c>
       <c r="D49" s="39">
-        <f t="shared" ref="D49" si="13">IFERROR(VLOOKUP(E49,Levels,2),0)</f>
+        <f t="shared" ref="D49" si="14">IFERROR(VLOOKUP(E49,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="E49" s="40">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F49" s="40" t="e">
-        <f t="shared" ref="F49" si="14">VLOOKUP(CONCATENATE($A49,"-",IFERROR(VLOOKUP(E49,Levels,3),0)),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="F49" si="15">VLOOKUP(CONCATENATE($A49,"-",IFERROR(VLOOKUP(E49,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
       <c r="G49" s="39">
-        <f t="shared" ref="G49" si="15">IFERROR(VLOOKUP(H49,Levels,2),0)</f>
+        <f t="shared" ref="G49" si="16">IFERROR(VLOOKUP(H49,Levels,2),0)</f>
         <v>0</v>
       </c>
       <c r="H49" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I49" s="40" t="e">
-        <f t="shared" ref="I49" si="16">VLOOKUP(CONCATENATE($A49,"-",IFERROR(VLOOKUP(H49,Levels,3),0)),LevelDescription,2,FALSE)</f>
+        <f t="shared" ref="I49" si="17">VLOOKUP(CONCATENATE($A49,"-",IFERROR(VLOOKUP(H49,Levels,3),0)),LevelDescription,2,FALSE)</f>
         <v>#N/A</v>
       </c>
     </row>
@@ -30992,35 +30987,35 @@
       <c r="A50" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="B50" s="83" t="s">
-        <v>465</v>
+      <c r="B50" s="52" t="s">
+        <v>464</v>
       </c>
       <c r="C50" s="39" t="str">
-        <f>VLOOKUP(CONCATENATE($A50,"-","ストリーム"),LevelDescription,2,FALSE)</f>
+        <f t="shared" si="2"/>
         <v>攻撃対象領域管理</v>
       </c>
       <c r="D50" s="39">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="E50" s="40">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
+      <c r="E50" s="40">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
       <c r="F50" s="40" t="e">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>#N/A</v>
       </c>
       <c r="G50" s="39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="H50" s="40">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="I50" s="40" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
